--- a/Task 1/Unit Tests.xlsx
+++ b/Task 1/Unit Tests.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bogus\Documents\Testing\LeapDev QA Task\LeapDev-Quality-Engineer-Task\Task 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F16653D5-C969-4FC9-8055-D7C264D2D86F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECC584C9-C384-4B3F-A9C3-EE16A21B8C22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Registration &amp; Login" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="116">
   <si>
     <t>Status</t>
   </si>
@@ -90,12 +90,6 @@
     <t>Register a valid user</t>
   </si>
   <si>
-    <t>Fist Name: a
-Last Name: a
-UserName: a
-Passoword: Mypassword1!</t>
-  </si>
-  <si>
     <t>Steps</t>
   </si>
   <si>
@@ -105,41 +99,18 @@
     <t>1. User is registered</t>
   </si>
   <si>
-    <t>1. User is not registered 
-2. All warinings are visible</t>
-  </si>
-  <si>
     <t>Verify the registration in the Book Store Application</t>
   </si>
   <si>
     <t>Book Store</t>
   </si>
   <si>
-    <t>Registration &amp; Login</t>
-  </si>
-  <si>
     <t>Profile</t>
   </si>
   <si>
     <t>LeapDev_Register_01</t>
   </si>
   <si>
-    <t>LeapDevRegister_01_001</t>
-  </si>
-  <si>
-    <t>LeapDevRegister_01_002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fist Name: a
-Last Name: a
-UserName: ab
-Valid password: Mypassword1!
-Invalid passoword1: Mypas1!
-Invalid passoword2: Mypassword1
-Invalid password3: mypassword1!
-</t>
-  </si>
-  <si>
     <t>LeapDev_BookStore_01</t>
   </si>
   <si>
@@ -159,11 +130,6 @@
   </si>
   <si>
     <t>LeapDev_BookStore_01_004</t>
-  </si>
-  <si>
-    <t>query1: javascript
-query2: addy
-qury3: media</t>
   </si>
   <si>
     <t>1. Type query into input field above the table
@@ -209,10 +175,6 @@
     <t>Add book to your collection</t>
   </si>
   <si>
-    <t>1. Popup was visible
-2. User remains on the book page</t>
-  </si>
-  <si>
     <t>LeapDev_Profile_01</t>
   </si>
   <si>
@@ -234,6 +196,59 @@
   <si>
     <t>1) Visit https://demoqa.com/register
 2) User is not logged in</t>
+  </si>
+  <si>
+    <t>UserName: z
+Passoword: Mypassword1!
+note: user has multiple book added to his profile</t>
+  </si>
+  <si>
+    <t>1. Positions are ordered alphabetically with regard to the chosen column</t>
+  </si>
+  <si>
+    <t>Verify functionalities of Book Store</t>
+  </si>
+  <si>
+    <t>Try to register a user with invalid data</t>
+  </si>
+  <si>
+    <t>1) Visit https://demoqa.com/register
+2) User is not logged in
+3) UserName with the same name is not created</t>
+  </si>
+  <si>
+    <t>LeapDev_Profile_01_005</t>
+  </si>
+  <si>
+    <t>Table navigation</t>
+  </si>
+  <si>
+    <t>UserName: z
+Passoword: Mypassword1!
+note: user has multiple book added to his profile (more than 5)</t>
+  </si>
+  <si>
+    <t>1. Pages and rows has changed correctly
+2. Page and rows indication has changed correctly</t>
+  </si>
+  <si>
+    <t>LeapDev_BookStore_01_005</t>
+  </si>
+  <si>
+    <t>1) User is created
+2) User is logged in
+3) User does not have book added to his collection
+4) Visit https://demoqa.com/books</t>
+  </si>
+  <si>
+    <t>1. Registration is incomplete
+2. All warnings are visible after the execution of specific steps
+3. All popups and requests are visible</t>
+  </si>
+  <si>
+    <t>query1: javascript
+query2: addy
+query3: media</t>
   </si>
   <si>
     <t>UserName: z
@@ -241,41 +256,166 @@
 note: user has multiple book added to his profile
 query1: javascript
 query2: addy
-qury3: media</t>
-  </si>
-  <si>
-    <t>UserName: z
-Passoword: Mypassword1!
-note: user has multiple book added to his profile</t>
-  </si>
-  <si>
-    <t>1. Positions are ordered alphabetically with regard to the chosen column</t>
-  </si>
-  <si>
-    <t>Verify functionalities of Book Store</t>
-  </si>
-  <si>
-    <t>Try to register a user with invalid data</t>
-  </si>
-  <si>
-    <t>1) Visit https://demoqa.com/register
-2) User is not logged in
-3) UserName with the same name is not created</t>
-  </si>
-  <si>
-    <t>LeapDev_Profile_01_005</t>
-  </si>
-  <si>
-    <t>1) User is logged in
+query3: media</t>
+  </si>
+  <si>
+    <t>First Name: a
+Last Name: a
+UserName: a
+Password: Mypassword1!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">First Name: a
+Last Name: a
+UserName: ab
+Invalid password1: Mypas1!
+Invalid password2: Mypassword1
+Invalid password3: mypassword1!
+</t>
+  </si>
+  <si>
+    <t>LeapDev_Profile_01_004</t>
+  </si>
+  <si>
+    <t>Try to login with invalid credentials</t>
+  </si>
+  <si>
+    <t>UserName: b
+Invalid password: Mypassword1</t>
+  </si>
+  <si>
+    <t>1. Login is incomplete
+2. Warning is visible</t>
+  </si>
+  <si>
+    <t>1. User is not logged in</t>
+  </si>
+  <si>
+    <t>LeapDev_Register&amp;Login_01_001</t>
+  </si>
+  <si>
+    <t>Register&amp;Login</t>
+  </si>
+  <si>
+    <t>LeapDev_Register&amp;Login_01_002</t>
+  </si>
+  <si>
+    <t>1) Visit https://demoqa.com/login
+3) User is created (this data should or can be mocked for the purpose of this test)
+2) User is not logged in</t>
+  </si>
+  <si>
+    <t>1. Type Username and Invalid passoword
+2 .Click on login button
+3. Login is incomplete and a message with invalid username or password</t>
+  </si>
+  <si>
+    <t>UserName: b
+Passoword: Mypassword1!</t>
+  </si>
+  <si>
+    <t>1. User is logged in
+2. All popups, requests and responses are visible</t>
+  </si>
+  <si>
+    <t>LeapDev_Register&amp;Login_01_003</t>
+  </si>
+  <si>
+    <t>LeapDev_Register&amp;Login_01_004</t>
+  </si>
+  <si>
+    <t>Login as a valid user</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Visit https://demoqa.com/login
+2) User is created (this data should or can be mocked for the purpose of this test)
+3) User is not logged in
+</t>
+  </si>
+  <si>
+    <t>LeapDev_Register&amp;Login_01_005</t>
+  </si>
+  <si>
+    <t>Log out</t>
+  </si>
+  <si>
+    <t>1. There is a message visible that user is logged in
+2. Click on a button to log out</t>
+  </si>
+  <si>
+    <t>1. User is redirected to login page with empty credentials</t>
+  </si>
+  <si>
+    <t>1. Enter First Name
+2. Enter Last Name
+3. Enter UserName
+4. Enter Password
+5. Verify reCaptcha
+6. Click on register button
+7. In dev tools check message User, request method: POST, Status Code: 201 Created, Payload contains userName and Password provided
+8. Popup with message "User Register Successfully." is visible on top of the screen
+9. Click "OK"</t>
+  </si>
+  <si>
+    <t>1. Click "Register"
+2. Registration is uncomplete and missing fields are highlighted with a red border and a tooltip under hover
+3. Fill all the data (use Valid password)
+4. Click "Register"
+5. Registration is uncomplete and a message to veirfy recaptcha is visible
+6. Change password to Invalid passoword1
+7. Verify reCaptcha
+8. Click on register button
+9. Registration is incomplete and a message with invalid password should be visible
+10. In dev tools check message User, request method POST, Status Code: 400 Bad Request, Payload contains userName and Password provided
+(steps 6-10 should be repeated for each invalid password)</t>
+  </si>
+  <si>
+    <t>1. Click on the title of any chosen book
+2. User is directed to the book page
+3. Click on Add To Your Collection button
+4. Popup with message that book has been added is visible
+5. In dev tools check message Books, request method POST, Status Code 201 Created, Payload contains userId and isbn of the book
+6. Click on OK button
+7. Popup disappears</t>
+  </si>
+  <si>
+    <t>1. Registration page with empty data is visible
+2. All popups, requests and responses are visible</t>
+  </si>
+  <si>
+    <t>1. Registration is incomplete
+2. All warnings are visible after the execution of specific steps
+3. All popups, requests and responses are visible</t>
+  </si>
+  <si>
+    <t>1. Enter UserName
+2. Enter Password
+3. Click on login button
+4. User is redirected to page with Profile section
+5. In Network in dev tools message Generate Token; request method: POST with response status code 200 OK is visible; Payload contains provided userName and password
+6. In Network in dev tools message Login; request method: POST, Status Code" 200 OK is visible; Payload contains provided userName and password</t>
+  </si>
+  <si>
+    <t>1. All popups, requests and responses are visible
+2. User remains on the book page</t>
+  </si>
+  <si>
+    <t>1) User is logged in  (this data should or can be mocked for the purpose of this test)
 2) Visit https://demoqa.com/profile</t>
   </si>
   <si>
-    <t>Table navigation</t>
-  </si>
-  <si>
-    <t>UserName: z
-Passoword: Mypassword1!
-note: user has multiple book added to his profile (more than 5)</t>
+    <t>1. Table is opened on page 1 with 10 rows
+2. Change number of rows to "5"
+3. Click on the Next button
+4. Page 2 with different books is visible
+5. Click on the previous button
+6. Page 1 is visible
+7. In the input field delete "1" type "2" and press Enter
+8.  Page 2 is visible
+9. Navigate back to page 1
+10. Number of rows is extended to 10 and books from page 2 are visible
+11. Numbers of rows chosen has also changed
+note: this test should be repeated for all row ranges that are possible to choose</t>
   </si>
   <si>
     <t>1. Table is opened on page 1 with 5 rows
@@ -288,86 +428,107 @@
 8. Navigate back to page 1
 9. Change number of rows to "10"
 10. Number of rows is extended to 10 and books from page 2 are visible
-11. Numbers of rows chosen has also changed</t>
-  </si>
-  <si>
-    <t>1. Pages and rows has changed correctly
-2. Page and rows indication has changed correctly</t>
-  </si>
-  <si>
-    <t>LeapDev_BookStore_01_005</t>
-  </si>
-  <si>
-    <t>1. Table is opened on page 1 with 10 rows
-2. Change number of rows to "5"
-3. Click on the Next button
-4. Page 2 with different books is visible
-5. Click on the previous button
-6. Page 1 is visible
-7. In the input field delete "1" type "2" and press Enter
-8.  Page 2 is visible
-9. Navigate back to page 1
-10. Number of rows is extended to 10 and books from page 2 are visible
-11. Numbers of rows chosen has also changed</t>
-  </si>
-  <si>
-    <t>1. Click on the title of any chosen book
-2. User is directed to book page
-3. Click on Add To Your Collection button
-4. Popup with message that book has been added is visible
-5. In dev tools check message request POST, Payload contains userId and isbn of the book
-6. Click on OK button
-7. Popup disappears</t>
-  </si>
-  <si>
-    <t>1) User is created
-2) User is logged in
-3) User does not have book added to his collection
-4) Visit https://demoqa.com/books</t>
-  </si>
-  <si>
-    <t>1. Enter First Name
-2. Enter Last Name
-3. Enter UserName
-4. Enter Password
-5. Verify reCaptcha
-6. Click on register button
-7. In dev tools check message request POST, Payload contains userName and Password provided
-8. Popup with message "User Register Successfully." is visible on top of the screen
-9. Click "OK"</t>
-  </si>
-  <si>
-    <t>1. Click "Register"
-2. Registration is uncomplete and missing fields are hilighted with a red border and a tooltip under hover
-3. Fill all the data (use Valid password)
-4. Click "Register"
-5. Registration is uncomplete and a message to veirfy recaptcha is visible
-6. Change password to Invalid passoword1
-7. Verify reCaptcha
-8. Click on register button
-9. Registration is incomplete and a message with invalid password should be visible
-10. In dev tools check message request POST, Payload contains userName and Password provided
-(steps 6-10 should be repeated for each invalid password)</t>
-  </si>
-  <si>
-    <t>1. All popups and requests are visible
-2. User remains on the book page</t>
-  </si>
-  <si>
-    <t>1. Registration page with empty data is visible
-2. All popups and requests are visible</t>
-  </si>
-  <si>
-    <t>1. Registration is incomplete
-2. All warnings are visible after the execution of specific steps
-3. All popups and requests are visible</t>
+11. Numbers of rows chosen has also changed
+note: this test should be repeated for all row ranges that are possible to choose</t>
+  </si>
+  <si>
+    <t>Delete a book</t>
+  </si>
+  <si>
+    <t>Delete all books</t>
+  </si>
+  <si>
+    <t>LeapDev_Profile_01_006</t>
+  </si>
+  <si>
+    <t>LeapDev_Profile_01_007</t>
+  </si>
+  <si>
+    <t>Delete account</t>
+  </si>
+  <si>
+    <t>1. Click on trash icon next to the chosen book
+2. Popup to delete this book is visible
+3. Click OK
+4. Message Book, request method: DELETE, with response status 204 No Content is visible, Payload contains userId and bookId (isbn)
+5. Popup with delete confirmation is visible
+6. Click OK
+7. Book is no longer visible in the table</t>
+  </si>
+  <si>
+    <t>1) User is logged in  (this data should or can be mocked for the purpose of this test)
+2) User has some books added
+3) Visit https://demoqa.com/profile</t>
+  </si>
+  <si>
+    <t>UserName: z
+Passoword: Mypassword1!
+note: user has at least one book added to his profile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. All popup, requests and responses are visible
+2. Book is deleted </t>
+  </si>
+  <si>
+    <t>UserName: z
+Passoword: Mypassword1!
+note: user has at least two books added to his profile</t>
+  </si>
+  <si>
+    <t>1. Click on Delete All Books button which is below the table
+2. Pop to delete all book is visible
+3. Click Cancel button
+4. Popup disappears
+5. Repeat steps 1-2
+6. Click OK button
+7. Popup to delete confirmation is visible
+8. Click OK button
+9. Popup with delete confirmation is visible
+10. Click OK button
+11. Popup disappears
+12. Profile section has no positions in the table
+13. In dev tools check message Book, request method: DELETE, Status Code: 204 No Content; Payload contains userId
+14. repeat steps 1-2
+15. Click OK button
+16. Popup with message that there are no books in user's collection is visible
+17. Click OK
+18. Both popups disappear</t>
+  </si>
+  <si>
+    <t>1. All books are removed from the table
+2. All popup, requests and responses are visible</t>
+  </si>
+  <si>
+    <t>1) User is logged in (this data should or can be mocked for the purpose of this test)
+2) Visit https://demoqa.com/profile</t>
+  </si>
+  <si>
+    <t>UserName: z
+Passoword: Mypassword1!</t>
+  </si>
+  <si>
+    <t>1. Click on Delete Account button
+2. Pop to delete all book is visible
+3. Click Cancel button
+4. Popup is disappears
+5. Repeat steps 1-2
+6. Click OK button
+7. Popup with delete confimation is visible
+8. Click OK
+9. User is redirected to https://demoqa.com/login
+10. In dev tools check message request DELETE; Request Url contains userId
+11. Try to login with previous credentials</t>
+  </si>
+  <si>
+    <t>1) Visit https://demoqa.com/login
+2) User is logged in</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -389,6 +550,11 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -473,7 +639,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -534,6 +700,10 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -810,17 +980,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{937CA3BF-16DC-48B1-81C8-754652CB64B5}">
-  <dimension ref="B3:N19"/>
+  <dimension ref="B3:N21"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="35.5703125" customWidth="1"/>
-    <col min="4" max="4" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="30.28515625" customWidth="1"/>
     <col min="6" max="6" width="25.7109375" customWidth="1"/>
     <col min="7" max="7" width="28.7109375" customWidth="1"/>
@@ -829,7 +999,7 @@
     <col min="10" max="10" width="24.28515625" customWidth="1"/>
     <col min="11" max="11" width="23.5703125" customWidth="1"/>
     <col min="13" max="13" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:14" x14ac:dyDescent="0.2">
@@ -845,7 +1015,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>29</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.2">
@@ -900,10 +1070,10 @@
         <v>19</v>
       </c>
       <c r="H12" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" s="10" t="s">
         <v>23</v>
-      </c>
-      <c r="I12" s="10" t="s">
-        <v>24</v>
       </c>
       <c r="J12" s="10" t="s">
         <v>16</v>
@@ -923,34 +1093,34 @@
     </row>
     <row r="13" spans="2:14" ht="156" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>21</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L13" s="20" t="s">
         <v>20</v>
@@ -962,32 +1132,32 @@
         <v>45097</v>
       </c>
     </row>
-    <row r="14" spans="2:14" ht="221.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:14" ht="268.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="6"/>
       <c r="C14" s="7"/>
       <c r="D14" s="4" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="H14" s="12" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="I14" s="12" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="J14" s="12" t="s">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="K14" s="12" t="s">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="L14" s="19" t="s">
         <v>20</v>
@@ -999,50 +1169,114 @@
         <v>45097</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B15" s="13"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B16" s="13"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="13"/>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B17" s="13"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="13"/>
+    <row r="15" spans="2:14" ht="170.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="9"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="I15" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="J15" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="K15" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="L15" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="M15" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="N15" s="11">
+        <v>45097</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" ht="156" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="6"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="K16" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="L16" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="M16" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="N16" s="16">
+        <v>45097</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" ht="93.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="6"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="I17" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="J17" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="K17" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="L17" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="M17" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="N17" s="16">
+        <v>45097</v>
+      </c>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B18" s="13"/>
@@ -1060,7 +1294,7 @@
       <c r="N18" s="13"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B19" s="15"/>
+      <c r="B19" s="13"/>
       <c r="C19" s="14"/>
       <c r="D19" s="13"/>
       <c r="E19" s="14"/>
@@ -1074,7 +1308,38 @@
       <c r="M19" s="13"/>
       <c r="N19" s="13"/>
     </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B20" s="13"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="13"/>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B21" s="15"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
+    </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1084,15 +1349,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FBEC7C0-EC4D-49A4-B059-650BE5AA2B13}">
   <dimension ref="B3:N21"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="35.5703125" customWidth="1"/>
-    <col min="4" max="4" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.5703125" customWidth="1"/>
     <col min="5" max="5" width="30.28515625" customWidth="1"/>
     <col min="6" max="6" width="25.28515625" customWidth="1"/>
     <col min="7" max="7" width="28.7109375" customWidth="1"/>
@@ -1100,7 +1365,8 @@
     <col min="9" max="9" width="34.140625" customWidth="1"/>
     <col min="10" max="10" width="34.28515625" customWidth="1"/>
     <col min="11" max="11" width="33.140625" customWidth="1"/>
-    <col min="13" max="14" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18" customWidth="1"/>
+    <col min="14" max="14" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:14" x14ac:dyDescent="0.2">
@@ -1116,7 +1382,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.2">
@@ -1171,10 +1437,10 @@
         <v>19</v>
       </c>
       <c r="H12" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" s="17" t="s">
         <v>23</v>
-      </c>
-      <c r="I12" s="17" t="s">
-        <v>24</v>
       </c>
       <c r="J12" s="17" t="s">
         <v>16</v>
@@ -1192,36 +1458,36 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="2:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:14" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="9" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="D13" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="H13" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="E13" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="H13" s="12" t="s">
-        <v>43</v>
-      </c>
       <c r="I13" s="12" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="J13" s="12" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="K13" s="12" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="L13" s="19" t="s">
         <v>20</v>
@@ -1233,33 +1499,33 @@
         <v>45097</v>
       </c>
     </row>
-    <row r="14" spans="2:14" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:14" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="9"/>
       <c r="C14" s="12"/>
       <c r="D14" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="12" t="s">
-        <v>45</v>
-      </c>
       <c r="F14" s="12" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G14" s="12"/>
       <c r="H14" s="12" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="I14" s="12" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="J14" s="12" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="K14" s="12" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="L14" s="21" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="M14" s="18" t="s">
         <v>1</v>
@@ -1268,33 +1534,33 @@
         <v>45097</v>
       </c>
     </row>
-    <row r="15" spans="2:14" ht="102" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:14" ht="115.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="6"/>
       <c r="C15" s="7"/>
       <c r="D15" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="E15" s="12" t="s">
-        <v>46</v>
-      </c>
       <c r="F15" s="12" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G15" s="12"/>
       <c r="H15" s="12" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="I15" s="12" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="J15" s="12" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="K15" s="12" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="L15" s="21" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="M15" s="18" t="s">
         <v>1</v>
@@ -1303,30 +1569,30 @@
         <v>45097</v>
       </c>
     </row>
-    <row r="16" spans="2:14" ht="177" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:14" ht="218.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="6"/>
       <c r="C16" s="7"/>
       <c r="D16" s="9" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G16" s="12"/>
       <c r="H16" s="12" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="I16" s="12" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="J16" s="12" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="K16" s="12" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="L16" s="22" t="s">
         <v>20</v>
@@ -1338,32 +1604,32 @@
         <v>45097</v>
       </c>
     </row>
-    <row r="17" spans="2:14" ht="118.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:14" ht="144" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="6"/>
       <c r="C17" s="7"/>
       <c r="D17" s="9" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="G17" s="6"/>
       <c r="H17" s="12" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="I17" s="12" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="J17" s="12" t="s">
-        <v>54</v>
+        <v>96</v>
       </c>
       <c r="K17" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="L17" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="L17" s="22" t="s">
         <v>20</v>
       </c>
       <c r="M17" s="18" t="s">
@@ -1440,10 +1706,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D22A965-26E4-4B09-8250-A3BAEFF592F3}">
-  <dimension ref="B3:N17"/>
+  <dimension ref="B3:N19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1458,7 +1724,7 @@
     <col min="9" max="9" width="31.5703125" customWidth="1"/>
     <col min="10" max="10" width="33.7109375" customWidth="1"/>
     <col min="11" max="11" width="35.140625" customWidth="1"/>
-    <col min="13" max="13" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19" customWidth="1"/>
     <col min="14" max="14" width="16.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1475,7 +1741,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.2">
@@ -1528,10 +1794,10 @@
         <v>19</v>
       </c>
       <c r="H12" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" s="10" t="s">
         <v>23</v>
-      </c>
-      <c r="I12" s="10" t="s">
-        <v>24</v>
       </c>
       <c r="J12" s="10" t="s">
         <v>16</v>
@@ -1551,34 +1817,34 @@
     </row>
     <row r="13" spans="2:14" ht="111" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="9" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="J13" s="12" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="K13" s="12" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="L13" s="22" t="s">
         <v>20</v>
@@ -1594,31 +1860,31 @@
       <c r="B14" s="6"/>
       <c r="C14" s="7"/>
       <c r="D14" s="9" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="E14" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="K14" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="L14" s="21" t="s">
         <v>45</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="H14" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="I14" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="J14" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="K14" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="L14" s="21" t="s">
-        <v>52</v>
       </c>
       <c r="M14" s="18" t="s">
         <v>1</v>
@@ -1631,31 +1897,31 @@
       <c r="B15" s="6"/>
       <c r="C15" s="7"/>
       <c r="D15" s="9" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="I15" s="12" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="J15" s="12" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="K15" s="12" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="L15" s="21" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="M15" s="18" t="s">
         <v>1</v>
@@ -1664,32 +1930,32 @@
         <v>45097</v>
       </c>
     </row>
-    <row r="16" spans="2:14" ht="168" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:14" ht="222" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="6"/>
       <c r="C16" s="7"/>
       <c r="D16" s="9" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="I16" s="12" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="J16" s="12" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="K16" s="12" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="L16" s="22" t="s">
         <v>20</v>
@@ -1701,20 +1967,104 @@
         <v>45097</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B17" s="15"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="13"/>
+    <row r="17" spans="2:14" ht="114.75" x14ac:dyDescent="0.2">
+      <c r="B17" s="9"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L17" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="M17" s="6"/>
+      <c r="N17" s="11">
+        <v>45097</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" ht="280.5" x14ac:dyDescent="0.2">
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="F18" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="I18" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="J18" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="K18" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="L18" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="M18" s="23"/>
+      <c r="N18" s="11">
+        <v>45097</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" ht="177.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="G19" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="I19" s="23"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="23"/>
+      <c r="L19" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="M19" s="23"/>
+      <c r="N19" s="11">
+        <v>45097</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
